--- a/matlab/logDataProcess/ipb4-44.xlsx
+++ b/matlab/logDataProcess/ipb4-44.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="37395" windowHeight="11580"/>
+    <workbookView xWindow="19635" yWindow="-15" windowWidth="9885" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>reactor</t>
   </si>
@@ -80,6 +80,24 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>IPBx_Qkcal_10Khz_2000ns_200-350C_H2.csv</t>
+  </si>
+  <si>
+    <t>IPBx_Qkcal_1500ns_200-350C_H2.csv</t>
+  </si>
+  <si>
+    <t>050517</t>
+  </si>
+  <si>
+    <t>h2-2000ns</t>
+  </si>
+  <si>
+    <t>Ipb4-QkCal_H2-10KHz_2000ns_5-5-17_day-01.csv</t>
   </si>
 </sst>
 </file>
@@ -927,32 +945,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,43 +982,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1009,44 +1031,47 @@
       <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>3</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>0.5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>0</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>0.9</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>189</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1056,41 +1081,91 @@
       <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
       </c>
       <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
         <v>7</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>0.9</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>189</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="N4" s="2">
+        <v>189</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/ipb4-44.xlsx
+++ b/matlab/logDataProcess/ipb4-44.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19635" yWindow="-15" windowWidth="9885" windowHeight="10245"/>
+    <workbookView xWindow="4425" yWindow="-240" windowWidth="24810" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>reactor</t>
   </si>
@@ -76,9 +76,6 @@
     <t>h2</t>
   </si>
   <si>
-    <t>h2-1500ns</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -94,10 +91,37 @@
     <t>050517</t>
   </si>
   <si>
-    <t>h2-2000ns</t>
-  </si>
-  <si>
     <t>Ipb4-QkCal_H2-10KHz_2000ns_5-5-17_day-01.csv</t>
+  </si>
+  <si>
+    <t>Ipb4-QkCal_H2-7KHz_2500ns_5-8-17_day-01.csv</t>
+  </si>
+  <si>
+    <t>050917</t>
+  </si>
+  <si>
+    <t>Ipb4-QkCal_H2-40V_6000ns_5-9-17_day-01.csv</t>
+  </si>
+  <si>
+    <t>051017</t>
+  </si>
+  <si>
+    <t>h2-6000ns-low-voltage</t>
+  </si>
+  <si>
+    <t>h2-2500ns-low-pass-filter</t>
+  </si>
+  <si>
+    <t>h2-2000ns-low-pass-filter</t>
+  </si>
+  <si>
+    <t>h2-1500ns-low-pass-filter</t>
+  </si>
+  <si>
+    <t>IPBx_Qkcal_40v_6000ns_200-350C_H2.csv</t>
+  </si>
+  <si>
+    <t>IPBx_Qkcal_7Khz_2500ns_200-350C_H2.csv</t>
   </si>
 </sst>
 </file>
@@ -945,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -957,7 +981,7 @@
     <col min="2" max="2" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
@@ -982,7 +1006,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1032,7 +1056,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -1065,10 +1089,10 @@
         <v>189</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1082,7 +1106,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1115,10 +1139,10 @@
         <v>189</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1129,13 +1153,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F4" s="2">
         <v>7</v>
@@ -1149,6 +1173,9 @@
       <c r="I4" s="2">
         <v>2</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="K4" s="2">
         <v>0</v>
       </c>
@@ -1162,10 +1189,110 @@
         <v>189</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="F5" s="2">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="N5" s="2">
+        <v>189</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="N6" s="2">
+        <v>189</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/ipb4-44.xlsx
+++ b/matlab/logDataProcess/ipb4-44.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="-240" windowWidth="24810" windowHeight="10245"/>
+    <workbookView xWindow="1965" yWindow="4680" windowWidth="24810" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
@@ -972,7 +972,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1262,10 +1262,10 @@
         <v>28</v>
       </c>
       <c r="F6" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>

--- a/matlab/logDataProcess/ipb4-44.xlsx
+++ b/matlab/logDataProcess/ipb4-44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>reactor</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>IPBx_Qkcal_7Khz_2500ns_200-350C_H2.csv</t>
+  </si>
+  <si>
+    <t>051117</t>
+  </si>
+  <si>
+    <t>Ipb4-QkCal_H2-DC_200-350C_day-01.csv</t>
+  </si>
+  <si>
+    <t>h2-dc</t>
   </si>
 </sst>
 </file>
@@ -969,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1295,6 +1304,56 @@
         <v>30</v>
       </c>
     </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="N7" s="2">
+        <v>189</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/matlab/logDataProcess/ipb4-44.xlsx
+++ b/matlab/logDataProcess/ipb4-44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>reactor</t>
   </si>
@@ -106,18 +106,12 @@
     <t>051017</t>
   </si>
   <si>
-    <t>h2-6000ns-low-voltage</t>
-  </si>
-  <si>
     <t>h2-2500ns-low-pass-filter</t>
   </si>
   <si>
     <t>h2-2000ns-low-pass-filter</t>
   </si>
   <si>
-    <t>h2-1500ns-low-pass-filter</t>
-  </si>
-  <si>
     <t>IPBx_Qkcal_40v_6000ns_200-350C_H2.csv</t>
   </si>
   <si>
@@ -131,6 +125,24 @@
   </si>
   <si>
     <t>h2-dc</t>
+  </si>
+  <si>
+    <t>Ipb4-QkCal_H2-DC_200-400c_day-01.csv</t>
+  </si>
+  <si>
+    <t>IPB4-h2-dc-200-400C.csv</t>
+  </si>
+  <si>
+    <t>051317</t>
+  </si>
+  <si>
+    <t>IPB4-h2-dc-200-350C-roh.csv</t>
+  </si>
+  <si>
+    <t>h2-6000ns-40v</t>
+  </si>
+  <si>
+    <t>h2-1500ns-low-pass-filter(not good)</t>
   </si>
 </sst>
 </file>
@@ -978,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1101,7 +1113,7 @@
         <v>20</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1151,7 +1163,7 @@
         <v>20</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1201,7 +1213,7 @@
         <v>20</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1215,7 +1227,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
@@ -1251,7 +1263,7 @@
         <v>20</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -1265,7 +1277,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>28</v>
@@ -1301,7 +1313,7 @@
         <v>20</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1312,13 +1324,13 @@
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2">
         <v>17</v>
@@ -1351,7 +1363,57 @@
         <v>20</v>
       </c>
       <c r="P7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="N8" s="2">
+        <v>189</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/ipb4-44.xlsx
+++ b/matlab/logDataProcess/ipb4-44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>reactor</t>
   </si>
@@ -143,6 +143,21 @@
   </si>
   <si>
     <t>h2-1500ns-low-pass-filter(not good)</t>
+  </si>
+  <si>
+    <t>2017-05-14-V189-Core44b_H2</t>
+  </si>
+  <si>
+    <t>051717</t>
+  </si>
+  <si>
+    <t>Ipb4-100ns-2ADC_300v_516day-01.csv</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>h2-100ns-300v</t>
   </si>
 </sst>
 </file>
@@ -990,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1416,6 +1431,56 @@
         <v>36</v>
       </c>
     </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="N9" s="2">
+        <v>189</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/matlab/logDataProcess/ipb4-44.xlsx
+++ b/matlab/logDataProcess/ipb4-44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>reactor</t>
   </si>
@@ -158,6 +158,33 @@
   </si>
   <si>
     <t>h2-100ns-300v</t>
+  </si>
+  <si>
+    <t>ipb4-h2-100ns-300v-275-325c.csv</t>
+  </si>
+  <si>
+    <t>051917</t>
+  </si>
+  <si>
+    <t>2017-05-19-V1810-Core44b_H2</t>
+  </si>
+  <si>
+    <t>100ns-300v_day-01.csv</t>
+  </si>
+  <si>
+    <t>Double_pulse_100-1200ns-300v_day-01csv.csv</t>
+  </si>
+  <si>
+    <t>052117</t>
+  </si>
+  <si>
+    <t>ipbx-h2-100-1200ns_double pulse-300v-275-325c.csv</t>
+  </si>
+  <si>
+    <t>100ns-300v</t>
+  </si>
+  <si>
+    <t>dualNarrow-100-1200ns-300v</t>
   </si>
 </sst>
 </file>
@@ -1005,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1481,6 +1508,106 @@
         <v>47</v>
       </c>
     </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="N10" s="2">
+        <v>189</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M11" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="N11" s="2">
+        <v>189</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/matlab/logDataProcess/ipb4-44.xlsx
+++ b/matlab/logDataProcess/ipb4-44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
   <si>
     <t>reactor</t>
   </si>
@@ -185,6 +185,27 @@
   </si>
   <si>
     <t>dualNarrow-100-1200ns-300v</t>
+  </si>
+  <si>
+    <t>coreL</t>
+  </si>
+  <si>
+    <t>052417</t>
+  </si>
+  <si>
+    <t>100ns-300vold_day-01.csv</t>
+  </si>
+  <si>
+    <t>IPB4_Core_Cal_6000ns_250-350C-40v_day-01.csv</t>
+  </si>
+  <si>
+    <t>052317</t>
+  </si>
+  <si>
+    <t>100ns-300v3_day-01.csv</t>
+  </si>
+  <si>
+    <t>052517</t>
   </si>
 </sst>
 </file>
@@ -341,7 +362,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,6 +540,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -682,11 +709,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1032,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1049,16 +1078,17 @@
     <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,25 +1120,28 @@
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1140,25 +1173,28 @@
         <v>19</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
         <v>0.9</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>189</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1190,25 +1226,28 @@
         <v>19</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
         <v>0.9</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>189</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1240,25 +1279,28 @@
         <v>19</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
         <v>0.9</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>189</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1290,25 +1332,28 @@
         <v>19</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
         <v>0.9</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>189</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1340,25 +1385,28 @@
         <v>19</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
         <v>0.9</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>189</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1390,25 +1438,28 @@
         <v>19</v>
       </c>
       <c r="K7" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L7" s="2">
         <v>1</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>0.9</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>189</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1440,25 +1491,28 @@
         <v>19</v>
       </c>
       <c r="K8" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L8" s="2">
         <v>1</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>0.9</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>189</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1490,75 +1544,81 @@
         <v>19</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
         <v>0.9</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>189</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
         <v>5.4</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="4">
         <v>4.5</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="K10" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
         <v>0.9</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="4">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="4">
         <v>189</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1575,10 +1635,10 @@
         <v>52</v>
       </c>
       <c r="F11" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1590,22 +1650,175 @@
         <v>19</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
         <v>0.9</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>189</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N12" s="4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O12" s="4">
+        <v>189</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="4">
+        <v>6</v>
+      </c>
+      <c r="G13" s="4">
+        <v>7</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="I13" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N13" s="4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O13" s="4">
+        <v>189</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2">
+        <v>11</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N14" s="4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O14" s="4">
+        <v>189</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/ipb4-44.xlsx
+++ b/matlab/logDataProcess/ipb4-44.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="4680" windowWidth="24810" windowHeight="10245"/>
+    <workbookView xWindow="2760" yWindow="1530" windowWidth="24810" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
   <si>
     <t>reactor</t>
   </si>
@@ -139,9 +139,6 @@
     <t>IPB4-h2-dc-200-350C-roh.csv</t>
   </si>
   <si>
-    <t>h2-6000ns-40v</t>
-  </si>
-  <si>
     <t>h2-1500ns-low-pass-filter(not good)</t>
   </si>
   <si>
@@ -206,6 +203,27 @@
   </si>
   <si>
     <t>052517</t>
+  </si>
+  <si>
+    <t>IPB4_Qkcal_40v_6000ns_250-350C_H2_5-26-17_day-01.csv</t>
+  </si>
+  <si>
+    <t>6000ns-40v-probe1500v</t>
+  </si>
+  <si>
+    <t>6000ns-40v-probe150v</t>
+  </si>
+  <si>
+    <t>052717</t>
+  </si>
+  <si>
+    <t>6000ns-40v</t>
+  </si>
+  <si>
+    <t>052817</t>
+  </si>
+  <si>
+    <t>100ns-300v-527_day-01.csv</t>
   </si>
 </sst>
 </file>
@@ -1061,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1120,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -1191,10 +1209,10 @@
         <v>20</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1244,10 +1262,10 @@
         <v>20</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1300,7 +1318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1353,7 +1371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1403,10 +1421,10 @@
         <v>20</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1459,7 +1477,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1512,21 +1530,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F9" s="2">
         <v>3</v>
@@ -1562,24 +1580,24 @@
         <v>20</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -1615,24 +1633,24 @@
         <v>20</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -1668,21 +1686,21 @@
         <v>20</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="4">
         <v>4</v>
@@ -1718,21 +1736,21 @@
         <v>20</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="F13" s="4">
         <v>6</v>
@@ -1768,21 +1786,21 @@
         <v>20</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="2">
         <v>10</v>
@@ -1818,7 +1836,107 @@
         <v>20</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="2">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2">
+        <v>15</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N15" s="4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O15" s="4">
+        <v>189</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="2">
+        <v>16</v>
+      </c>
+      <c r="G16" s="2">
+        <v>17</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="N16" s="4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O16" s="4">
+        <v>189</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/ipb4-44.xlsx
+++ b/matlab/logDataProcess/ipb4-44.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1530" windowWidth="24810" windowHeight="10245"/>
+    <workbookView xWindow="5595" yWindow="315" windowWidth="24810" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="76">
   <si>
     <t>reactor</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Ipb4-100ns-2ADC_300v_516day-01.csv</t>
   </si>
   <si>
-    <t>file</t>
-  </si>
-  <si>
     <t>h2-100ns-300v</t>
   </si>
   <si>
@@ -224,6 +221,27 @@
   </si>
   <si>
     <t>100ns-300v-527_day-01.csv</t>
+  </si>
+  <si>
+    <t>6000ns-40-calibration-529_day-01.csv</t>
+  </si>
+  <si>
+    <t>6000ns-40v-googlecalibration</t>
+  </si>
+  <si>
+    <t>ipb34-6000ns-40v-calibration.csv</t>
+  </si>
+  <si>
+    <t>053017</t>
+  </si>
+  <si>
+    <t>ipb4-h2-100ns-300v-275-350c.csv</t>
+  </si>
+  <si>
+    <t>IPBx_Qkcal_40v_6000ns_250-350C_H2_roh.csv</t>
+  </si>
+  <si>
+    <t>ipbx-h2-100ns-300v-275-325c.csv</t>
   </si>
 </sst>
 </file>
@@ -380,7 +398,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,12 +576,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -727,13 +739,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1079,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1138,7 +1148,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -1421,7 +1431,7 @@
         <v>20</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1477,7 +1487,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1530,7 +1540,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1541,7 +1551,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>44</v>
@@ -1580,77 +1590,77 @@
         <v>20</v>
       </c>
       <c r="Q9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O10" s="2">
+        <v>189</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <v>2</v>
-      </c>
-      <c r="H10" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="I10" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="N10" s="4">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="O10" s="4">
-        <v>189</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -1686,121 +1696,130 @@
         <v>20</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O12" s="2">
+        <v>189</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2">
+        <v>7</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O13" s="2">
+        <v>189</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="4">
-        <v>4</v>
-      </c>
-      <c r="G12" s="4">
-        <v>5</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="N12" s="4">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="O12" s="4">
-        <v>189</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="4">
-        <v>6</v>
-      </c>
-      <c r="G13" s="4">
-        <v>7</v>
-      </c>
-      <c r="H13" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="I13" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="N13" s="4">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="O13" s="4">
-        <v>189</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F14" s="2">
         <v>10</v>
@@ -1808,49 +1827,52 @@
       <c r="G14" s="2">
         <v>11</v>
       </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="2">
         <v>16.5</v>
       </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
         <v>0.9</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="2">
         <v>189</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>54</v>
+      <c r="Q14" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>66</v>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="2">
         <v>13</v>
@@ -1858,49 +1880,52 @@
       <c r="G15" s="2">
         <v>15</v>
       </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4" t="s">
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="2">
         <v>16.5</v>
       </c>
-      <c r="L15" s="4">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
         <v>0.9</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="2">
         <v>189</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="4" t="s">
-        <v>64</v>
+      <c r="Q15" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F16" s="2">
         <v>16</v>
@@ -1908,35 +1933,88 @@
       <c r="G16" s="2">
         <v>17</v>
       </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="2">
         <v>16.5</v>
       </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
         <v>0.9</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="2">
         <v>189</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>54</v>
+      <c r="Q16" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="2">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2">
+        <v>21</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N17" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O17" s="2">
+        <v>189</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/ipb4-44.xlsx
+++ b/matlab/logDataProcess/ipb4-44.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jinwork\BE\matlab\logDataProcess\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="315" windowWidth="24810" windowHeight="10245"/>
+    <workbookView xWindow="5592" yWindow="312" windowWidth="24816" windowHeight="10248"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="80">
   <si>
     <t>reactor</t>
   </si>
@@ -226,9 +231,6 @@
     <t>6000ns-40-calibration-529_day-01.csv</t>
   </si>
   <si>
-    <t>6000ns-40v-googlecalibration</t>
-  </si>
-  <si>
     <t>ipb34-6000ns-40v-calibration.csv</t>
   </si>
   <si>
@@ -242,12 +244,27 @@
   </si>
   <si>
     <t>ipbx-h2-100ns-300v-275-325c.csv</t>
+  </si>
+  <si>
+    <t>ipb34-6000ns-40v-excitation.csv</t>
+  </si>
+  <si>
+    <t>060217</t>
+  </si>
+  <si>
+    <t>6000ns-40-excitation_day-01.csv</t>
+  </si>
+  <si>
+    <t>6000ns-40v-excitation</t>
+  </si>
+  <si>
+    <t>6000ns-40v-calibration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -845,7 +862,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -878,9 +895,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -913,6 +947,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1089,31 +1140,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="18" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1487,7 +1538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1540,7 +1591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1551,7 +1602,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>44</v>
@@ -1593,7 +1644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1646,7 +1697,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1699,7 +1750,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1710,7 +1761,7 @@
         <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>58</v>
@@ -1752,7 +1803,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1805,7 +1856,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1858,7 +1909,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1869,7 +1920,7 @@
         <v>65</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>62</v>
@@ -1911,7 +1962,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1922,7 +1973,7 @@
         <v>67</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>68</v>
@@ -1964,7 +2015,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1972,10 +2023,10 @@
         <v>48</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>69</v>
@@ -1984,7 +2035,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -2014,7 +2065,60 @@
         <v>20</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="2">
+        <v>23</v>
+      </c>
+      <c r="G18" s="2">
+        <v>25</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N18" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O18" s="2">
+        <v>189</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
